--- a/raw data-second step.xlsx
+++ b/raw data-second step.xlsx
@@ -4,29 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000" firstSheet="13" activeTab="18"/>
+    <workbookView windowWidth="18350" windowHeight="7000" activeTab="17"/>
   </bookViews>
   <sheets>
-    <sheet name="round 1" sheetId="1" r:id="rId1"/>
-    <sheet name="round 2" sheetId="2" r:id="rId2"/>
-    <sheet name="round 3" sheetId="3" r:id="rId3"/>
-    <sheet name="round 4" sheetId="4" r:id="rId4"/>
-    <sheet name="round 5" sheetId="5" r:id="rId5"/>
-    <sheet name="round 6" sheetId="6" r:id="rId6"/>
-    <sheet name="round 7" sheetId="7" r:id="rId7"/>
-    <sheet name="round 8" sheetId="8" r:id="rId8"/>
-    <sheet name="round 9" sheetId="9" r:id="rId9"/>
-    <sheet name="round 10" sheetId="10" r:id="rId10"/>
-    <sheet name="round 11" sheetId="11" r:id="rId11"/>
-    <sheet name="round 12" sheetId="12" r:id="rId12"/>
-    <sheet name="round 13" sheetId="13" r:id="rId13"/>
-    <sheet name="round 14" sheetId="14" r:id="rId14"/>
-    <sheet name="round 15" sheetId="15" r:id="rId15"/>
-    <sheet name="round 16" sheetId="16" r:id="rId16"/>
-    <sheet name="round 17" sheetId="17" r:id="rId17"/>
-    <sheet name="round 18" sheetId="18" r:id="rId18"/>
-    <sheet name="round 19" sheetId="19" r:id="rId19"/>
-    <sheet name="round 20" sheetId="20" r:id="rId20"/>
+    <sheet name="1 times" sheetId="1" r:id="rId1"/>
+    <sheet name="2 times" sheetId="2" r:id="rId2"/>
+    <sheet name="3 times" sheetId="3" r:id="rId3"/>
+    <sheet name="4 times" sheetId="4" r:id="rId4"/>
+    <sheet name="5 times" sheetId="5" r:id="rId5"/>
+    <sheet name="6 times" sheetId="6" r:id="rId6"/>
+    <sheet name="7 times" sheetId="7" r:id="rId7"/>
+    <sheet name="8 times" sheetId="8" r:id="rId8"/>
+    <sheet name="9 times" sheetId="9" r:id="rId9"/>
+    <sheet name="10 times" sheetId="10" r:id="rId10"/>
+    <sheet name="11 times" sheetId="11" r:id="rId11"/>
+    <sheet name="12 times" sheetId="12" r:id="rId12"/>
+    <sheet name="13 times" sheetId="13" r:id="rId13"/>
+    <sheet name="14 times" sheetId="14" r:id="rId14"/>
+    <sheet name="15 times" sheetId="15" r:id="rId15"/>
+    <sheet name="16 times" sheetId="16" r:id="rId16"/>
+    <sheet name="17 times" sheetId="17" r:id="rId17"/>
+    <sheet name="18 times" sheetId="18" r:id="rId18"/>
+    <sheet name="19 times" sheetId="19" r:id="rId19"/>
+    <sheet name="20 times" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -9609,7 +9609,7 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="B2" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N21"/>
     </sheetView>
   </sheetViews>
@@ -10533,7 +10533,7 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A18" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
